--- a/Solution/Final/Taakstructurering.xlsx
+++ b/Solution/Final/Taakstructurering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ti-software\Thema-Opdracht-Devices-HU\Solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeonLiu5\Documents\Thema-Opdracht-Devices-HU\Solution\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -315,7 +315,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,7 +630,7 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>

--- a/Solution/Final/Taakstructurering.xlsx
+++ b/Solution/Final/Taakstructurering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeonLiu5\Documents\Thema-Opdracht-Devices-HU\Solution\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ti-software\Thema-Opdracht-Devices-HU\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -315,7 +315,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,7 +630,7 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
